--- a/TemporalEnhancer/ids.xlsx
+++ b/TemporalEnhancer/ids.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
